--- a/clinical_info/Stim info.xlsx
+++ b/clinical_info/Stim info.xlsx
@@ -8,6 +8,7 @@
     <sheet state="visible" name="Pt3" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Pt4" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Pt5" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Pt6" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="217">
   <si>
     <t>Ieeg name</t>
   </si>
@@ -516,6 +517,156 @@
   </si>
   <si>
     <t>3 mA</t>
+  </si>
+  <si>
+    <t>HUP216_CCEP</t>
+  </si>
+  <si>
+    <t>RA1</t>
+  </si>
+  <si>
+    <t>LB1-LC1</t>
+  </si>
+  <si>
+    <t>left posterior insular</t>
+  </si>
+  <si>
+    <t>pulsing sensation 1 Hz when stimulating LK5-6, pulsing sound when stimulating LC2-3 and LC3-4</t>
+  </si>
+  <si>
+    <t>right hippocampus</t>
+  </si>
+  <si>
+    <t>RA3</t>
+  </si>
+  <si>
+    <t>RA5</t>
+  </si>
+  <si>
+    <t>RA7</t>
+  </si>
+  <si>
+    <t>right SSMA</t>
+  </si>
+  <si>
+    <t>RB3</t>
+  </si>
+  <si>
+    <t>RB5</t>
+  </si>
+  <si>
+    <t>RD1</t>
+  </si>
+  <si>
+    <t>left posterior cingulate</t>
+  </si>
+  <si>
+    <t>RD5</t>
+  </si>
+  <si>
+    <t>left SSMA</t>
+  </si>
+  <si>
+    <t>RD7</t>
+  </si>
+  <si>
+    <t>left pre-SMA</t>
+  </si>
+  <si>
+    <t>left premotor</t>
+  </si>
+  <si>
+    <t>left posterior central gyrus</t>
+  </si>
+  <si>
+    <t>left superior parietal lobule</t>
+  </si>
+  <si>
+    <t>RE7</t>
+  </si>
+  <si>
+    <t>left hippocampus</t>
+  </si>
+  <si>
+    <t>RE9</t>
+  </si>
+  <si>
+    <t>left posterior dorsal insula</t>
+  </si>
+  <si>
+    <t>RH1</t>
+  </si>
+  <si>
+    <t>left posterior ventral insula</t>
+  </si>
+  <si>
+    <t>RH2</t>
+  </si>
+  <si>
+    <t>RH3</t>
+  </si>
+  <si>
+    <t>RH4</t>
+  </si>
+  <si>
+    <t>RH5</t>
+  </si>
+  <si>
+    <t>RH6</t>
+  </si>
+  <si>
+    <t>RH7</t>
+  </si>
+  <si>
+    <t>RH8</t>
+  </si>
+  <si>
+    <t>RH9</t>
+  </si>
+  <si>
+    <t>RH10</t>
+  </si>
+  <si>
+    <t>LD7</t>
+  </si>
+  <si>
+    <t>LE7</t>
+  </si>
+  <si>
+    <t>LF7</t>
+  </si>
+  <si>
+    <t>LF9</t>
+  </si>
+  <si>
+    <t>LG7</t>
+  </si>
+  <si>
+    <t>LK1</t>
+  </si>
+  <si>
+    <t>LK2</t>
+  </si>
+  <si>
+    <t>LK3</t>
+  </si>
+  <si>
+    <t>LK4</t>
+  </si>
+  <si>
+    <t>LK5</t>
+  </si>
+  <si>
+    <t>LL5</t>
+  </si>
+  <si>
+    <t>LA4</t>
+  </si>
+  <si>
+    <t>LB4</t>
+  </si>
+  <si>
+    <t>LB5</t>
   </si>
 </sst>
 </file>
@@ -583,6 +734,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -803,7 +958,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -936,7 +1091,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1322,7 +1477,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1713,7 +1868,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2065,7 +2220,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2112,7 +2267,7 @@
       <c r="D2" s="1">
         <v>9347.8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>170.95</v>
       </c>
     </row>
@@ -2122,7 +2277,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2168.0</v>
       </c>
     </row>
@@ -2164,6 +2319,586 @@
     <row r="12">
       <c r="E12" s="1">
         <v>9347.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>25875.11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30135.61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="F3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="F4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="F57" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="F62" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="F63" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="F64" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="F65" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="F66" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="F68" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="F73" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="F75" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="F76" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="F77" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="F78" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="F79" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="F80" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/clinical_info/Stim info.xlsx
+++ b/clinical_info/Stim info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="262">
   <si>
     <t>Ieeg name</t>
   </si>
@@ -63,6 +63,9 @@
     <t>Other</t>
   </si>
   <si>
+    <t>visuallyBadChannels</t>
+  </si>
+  <si>
     <t>HUP211_CCEP</t>
   </si>
   <si>
@@ -81,6 +84,12 @@
     <t>left orbitofrontal</t>
   </si>
   <si>
+    <t>LC10</t>
+  </si>
+  <si>
+    <t>HUP211_phaseII</t>
+  </si>
+  <si>
     <t>LG2</t>
   </si>
   <si>
@@ -132,6 +141,12 @@
     <t>left amygdala</t>
   </si>
   <si>
+    <t>LA3</t>
+  </si>
+  <si>
+    <t>HUP212_phaseII</t>
+  </si>
+  <si>
     <t>LC2</t>
   </si>
   <si>
@@ -141,6 +156,9 @@
     <t>left anterior hippocampus</t>
   </si>
   <si>
+    <t>LA4</t>
+  </si>
+  <si>
     <t>LC3</t>
   </si>
   <si>
@@ -150,6 +168,9 @@
     <t>left posterior hippocampus</t>
   </si>
   <si>
+    <t>LA11</t>
+  </si>
+  <si>
     <t>LC4</t>
   </si>
   <si>
@@ -159,6 +180,9 @@
     <t>left anterior insula</t>
   </si>
   <si>
+    <t>LC8</t>
+  </si>
+  <si>
     <t>LC5</t>
   </si>
   <si>
@@ -168,18 +192,27 @@
     <t>left central sulcus</t>
   </si>
   <si>
+    <t>LD12</t>
+  </si>
+  <si>
     <t>LC6</t>
   </si>
   <si>
     <t>left posterior insula</t>
   </si>
   <si>
+    <t>LE12</t>
+  </si>
+  <si>
     <t>LA1</t>
   </si>
   <si>
     <t>left pars triangularis</t>
   </si>
   <si>
+    <t>LG12</t>
+  </si>
+  <si>
     <t>LA5</t>
   </si>
   <si>
@@ -447,15 +480,15 @@
     <t>Looks like nice cceps LC6-&gt;LB9; LA1-&gt;LC1;LA2-&gt;LL1;LJ3-&gt;LH5</t>
   </si>
   <si>
+    <t>HUP213_phaseII_D02</t>
+  </si>
+  <si>
     <t>LA2</t>
   </si>
   <si>
     <t>LD8</t>
   </si>
   <si>
-    <t>LA3</t>
-  </si>
-  <si>
     <t>LD9</t>
   </si>
   <si>
@@ -483,6 +516,9 @@
     <t>left superior frontal gyrus</t>
   </si>
   <si>
+    <t>LA10</t>
+  </si>
+  <si>
     <t>LK</t>
   </si>
   <si>
@@ -495,7 +531,7 @@
     <t>left orbitofrontal gyrus</t>
   </si>
   <si>
-    <t>LC8</t>
+    <t>LA12</t>
   </si>
   <si>
     <t>LM</t>
@@ -504,15 +540,69 @@
     <t>LB3</t>
   </si>
   <si>
+    <t>LB4</t>
+  </si>
+  <si>
     <t>LB9</t>
   </si>
   <si>
+    <t>LB5</t>
+  </si>
+  <si>
     <t>LB10</t>
   </si>
   <si>
+    <t>LB6</t>
+  </si>
+  <si>
+    <t>LB11</t>
+  </si>
+  <si>
     <t>LJ4</t>
   </si>
   <si>
+    <t>LB12</t>
+  </si>
+  <si>
+    <t>LC9</t>
+  </si>
+  <si>
+    <t>LC11</t>
+  </si>
+  <si>
+    <t>LC12</t>
+  </si>
+  <si>
+    <t>LD6</t>
+  </si>
+  <si>
+    <t>LD7</t>
+  </si>
+  <si>
+    <t>LD10</t>
+  </si>
+  <si>
+    <t>LD11</t>
+  </si>
+  <si>
+    <t>LE7</t>
+  </si>
+  <si>
+    <t>LE9</t>
+  </si>
+  <si>
+    <t>LE10</t>
+  </si>
+  <si>
+    <t>LE11</t>
+  </si>
+  <si>
+    <t>LL12</t>
+  </si>
+  <si>
+    <t>LM2</t>
+  </si>
+  <si>
     <t>CHOP_CCEPs</t>
   </si>
   <si>
@@ -537,6 +627,9 @@
     <t>right hippocampus</t>
   </si>
   <si>
+    <t>HUP216_phaseII_D02</t>
+  </si>
+  <si>
     <t>RA3</t>
   </si>
   <si>
@@ -627,10 +720,7 @@
     <t>RH10</t>
   </si>
   <si>
-    <t>LD7</t>
-  </si>
-  <si>
-    <t>LE7</t>
+    <t>LF6</t>
   </si>
   <si>
     <t>LF7</t>
@@ -639,9 +729,33 @@
     <t>LF9</t>
   </si>
   <si>
+    <t>LF10</t>
+  </si>
+  <si>
+    <t>LF12</t>
+  </si>
+  <si>
+    <t>LG6</t>
+  </si>
+  <si>
     <t>LG7</t>
   </si>
   <si>
+    <t>LG9</t>
+  </si>
+  <si>
+    <t>LG10</t>
+  </si>
+  <si>
+    <t>LG11</t>
+  </si>
+  <si>
+    <t>LH12</t>
+  </si>
+  <si>
+    <t>LI12</t>
+  </si>
+  <si>
     <t>LK1</t>
   </si>
   <si>
@@ -657,16 +771,37 @@
     <t>LK5</t>
   </si>
   <si>
+    <t>LJ5</t>
+  </si>
+  <si>
+    <t>LJ6</t>
+  </si>
+  <si>
+    <t>LJ7</t>
+  </si>
+  <si>
     <t>LL5</t>
   </si>
   <si>
-    <t>LA4</t>
-  </si>
-  <si>
-    <t>LB4</t>
-  </si>
-  <si>
-    <t>LB5</t>
+    <t>LJ8</t>
+  </si>
+  <si>
+    <t>LK9</t>
+  </si>
+  <si>
+    <t>LK10</t>
+  </si>
+  <si>
+    <t>LK12</t>
+  </si>
+  <si>
+    <t>LL9</t>
+  </si>
+  <si>
+    <t>RD12</t>
+  </si>
+  <si>
+    <t>RH12</t>
   </si>
 </sst>
 </file>
@@ -991,10 +1126,13 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
@@ -1007,60 +1145,66 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1124,10 +1268,13 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
@@ -1140,313 +1287,340 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1">
+        <v>659035.32</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="F48" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="F49" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="F50" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1687,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -1526,318 +1700,318 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1901,10 +2075,13 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
@@ -1917,279 +2094,566 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1390301.32</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="P34" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="P35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="P36" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="P37" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="P38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="P39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="P40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="P41" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="P42" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="P43" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="P44" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="P45" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="P46" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="P47" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="P48" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="P49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="P50" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="P51" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="P52" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="P53" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="P54" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="P55" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="P56" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="P57" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="P58" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="P59" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="P60" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="P61" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="P62" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="P63" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="P64" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="P65" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="P66" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="P67" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="P68" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="P69" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="P70" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2256,10 +2720,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1">
         <v>170.95</v>
@@ -2382,10 +2846,13 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2">
         <v>3.0</v>
@@ -2397,508 +2864,733 @@
         <v>30135.61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>172</v>
+        <v>202</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="1">
+        <v>285058.36</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>176</v>
+        <v>207</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>182</v>
+        <v>213</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>184</v>
+        <v>215</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>185</v>
+        <v>216</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>186</v>
+        <v>217</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>187</v>
+        <v>218</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>194</v>
+        <v>225</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>196</v>
+        <v>227</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>197</v>
+        <v>228</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>198</v>
+        <v>229</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>199</v>
+        <v>230</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>201</v>
+        <v>232</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>202</v>
+        <v>233</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>205</v>
+        <v>235</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>206</v>
+        <v>236</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="1" t="s">
-        <v>207</v>
+        <v>240</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="F48" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="F49" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="F50" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="51">
       <c r="F51" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" s="1" t="s">
-        <v>208</v>
+        <v>246</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" s="1" t="s">
-        <v>209</v>
+        <v>247</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" s="1" t="s">
-        <v>210</v>
+        <v>248</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" s="1" t="s">
-        <v>211</v>
+        <v>249</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" s="1" t="s">
-        <v>212</v>
+        <v>250</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" s="1" t="s">
-        <v>213</v>
+        <v>254</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" s="1" t="s">
-        <v>214</v>
+        <v>46</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" s="1" t="s">
-        <v>215</v>
+        <v>174</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" s="1" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/clinical_info/Stim info.xlsx
+++ b/clinical_info/Stim info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="262">
   <si>
     <t>Ieeg name</t>
   </si>
@@ -1164,7 +1164,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1684,6 +1684,9 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -2717,6 +2720,9 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -2851,10 +2857,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>3.0</v>
       </c>
       <c r="C2" s="1">
@@ -2881,7 +2887,7 @@
       <c r="N2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2901,7 +2907,7 @@
       <c r="N3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2915,7 +2921,7 @@
       <c r="N4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2929,7 +2935,7 @@
       <c r="N5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2943,7 +2949,7 @@
       <c r="N6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2957,7 +2963,7 @@
       <c r="N7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2971,7 +2977,7 @@
       <c r="N8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="1" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3083,7 +3089,7 @@
       <c r="N16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3097,7 +3103,7 @@
       <c r="N17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3207,7 +3213,7 @@
       <c r="F30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P30" s="1" t="s">
         <v>192</v>
       </c>
     </row>

--- a/clinical_info/Stim info.xlsx
+++ b/clinical_info/Stim info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="263">
   <si>
     <t>Ieeg name</t>
   </si>
@@ -607,6 +607,9 @@
   </si>
   <si>
     <t>3 mA</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
   <si>
     <t>HUP216_CCEP</t>
@@ -2734,8 +2737,8 @@
       <c r="C2" s="1">
         <v>170.95</v>
       </c>
-      <c r="D2" s="1">
-        <v>9347.8</v>
+      <c r="D2" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="E2" s="1">
         <v>170.95</v>
@@ -2858,7 +2861,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
@@ -2870,22 +2873,22 @@
         <v>30135.61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>116</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>62</v>
@@ -2893,13 +2896,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1">
         <v>285058.36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>119</v>
@@ -2913,7 +2916,7 @@
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>124</v>
@@ -2927,7 +2930,7 @@
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>126</v>
@@ -2947,7 +2950,7 @@
         <v>130</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>65</v>
@@ -2955,7 +2958,7 @@
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>52</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>56</v>
@@ -2983,7 +2986,7 @@
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>26</v>
@@ -3003,7 +3006,7 @@
         <v>20</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>171</v>
@@ -3011,13 +3014,13 @@
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>174</v>
@@ -3025,13 +3028,13 @@
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>178</v>
@@ -3045,7 +3048,7 @@
         <v>71</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>131</v>
@@ -3059,7 +3062,7 @@
         <v>167</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>134</v>
@@ -3073,7 +3076,7 @@
         <v>169</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>175</v>
@@ -3081,13 +3084,13 @@
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>177</v>
@@ -3095,13 +3098,13 @@
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>179</v>
@@ -3109,13 +3112,13 @@
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>181</v>
@@ -3123,7 +3126,7 @@
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>59</v>
@@ -3131,7 +3134,7 @@
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>54</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>74</v>
@@ -3147,7 +3150,7 @@
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>76</v>
@@ -3155,7 +3158,7 @@
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>157</v>
@@ -3163,7 +3166,7 @@
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>187</v>
@@ -3171,7 +3174,7 @@
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>187</v>
@@ -3179,7 +3182,7 @@
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>82</v>
@@ -3187,7 +3190,7 @@
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>113</v>
@@ -3254,7 +3257,7 @@
         <v>189</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36">
@@ -3262,7 +3265,7 @@
         <v>28</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37">
@@ -3270,7 +3273,7 @@
         <v>85</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
@@ -3278,20 +3281,20 @@
         <v>86</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>88</v>
@@ -3302,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42">
@@ -3310,7 +3313,7 @@
         <v>87</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43">
@@ -3318,15 +3321,15 @@
         <v>89</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
@@ -3334,7 +3337,7 @@
         <v>90</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46">
@@ -3374,7 +3377,7 @@
         <v>99</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51">
@@ -3406,12 +3409,12 @@
         <v>107</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>105</v>
@@ -3419,7 +3422,7 @@
     </row>
     <row r="56">
       <c r="F56" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>106</v>
@@ -3427,7 +3430,7 @@
     </row>
     <row r="57">
       <c r="F57" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>107</v>
@@ -3435,7 +3438,7 @@
     </row>
     <row r="58">
       <c r="F58" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>180</v>
@@ -3443,10 +3446,10 @@
     </row>
     <row r="59">
       <c r="F59" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60">
@@ -3454,7 +3457,7 @@
         <v>159</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61">
@@ -3462,15 +3465,15 @@
         <v>163</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63">
@@ -3478,7 +3481,7 @@
         <v>62</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64">
@@ -3486,7 +3489,7 @@
         <v>155</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65">
@@ -3494,7 +3497,7 @@
         <v>41</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66">
@@ -3518,7 +3521,7 @@
         <v>68</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69">
@@ -3534,7 +3537,7 @@
         <v>136</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71">
@@ -3550,7 +3553,7 @@
         <v>38</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73">
@@ -3558,7 +3561,7 @@
         <v>173</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74">
@@ -3566,7 +3569,7 @@
         <v>174</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75">

--- a/clinical_info/Stim info.xlsx
+++ b/clinical_info/Stim info.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinconrad/Desktop/research/cceps/CCEPS/clinical_info/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE2C8B4-B823-614A-B9DD-347EC2919917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Pt1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Pt2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Pt3" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Pt4" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Pt5" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Pt6" sheetId="6" r:id="rId9"/>
+    <sheet name="Pt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pt2" sheetId="2" r:id="rId2"/>
+    <sheet name="Pt3" sheetId="3" r:id="rId3"/>
+    <sheet name="Pt4" sheetId="4" r:id="rId4"/>
+    <sheet name="Pt5" sheetId="5" r:id="rId5"/>
+    <sheet name="Pt6" sheetId="6" r:id="rId6"/>
+    <sheet name="Pt7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="329">
   <si>
     <t>Ieeg name</t>
   </si>
@@ -805,82 +815,269 @@
   </si>
   <si>
     <t>RH12</t>
+  </si>
+  <si>
+    <t>HUP218_CCEP</t>
+  </si>
+  <si>
+    <t>RA2</t>
+  </si>
+  <si>
+    <t>RA6</t>
+  </si>
+  <si>
+    <t>RA8</t>
+  </si>
+  <si>
+    <t>RB2</t>
+  </si>
+  <si>
+    <t>RC2</t>
+  </si>
+  <si>
+    <t>RC8</t>
+  </si>
+  <si>
+    <t>RD2</t>
+  </si>
+  <si>
+    <t>RD6</t>
+  </si>
+  <si>
+    <t>RE2</t>
+  </si>
+  <si>
+    <t>RE4</t>
+  </si>
+  <si>
+    <t>RG2</t>
+  </si>
+  <si>
+    <t>RG4</t>
+  </si>
+  <si>
+    <t>RG5</t>
+  </si>
+  <si>
+    <t>RG6</t>
+  </si>
+  <si>
+    <t>RG7</t>
+  </si>
+  <si>
+    <t>RI2</t>
+  </si>
+  <si>
+    <t>RI3</t>
+  </si>
+  <si>
+    <t>RI4</t>
+  </si>
+  <si>
+    <t>RK2</t>
+  </si>
+  <si>
+    <t>RK3</t>
+  </si>
+  <si>
+    <t>RK4</t>
+  </si>
+  <si>
+    <t>RL1</t>
+  </si>
+  <si>
+    <t>RL3</t>
+  </si>
+  <si>
+    <t>RL7</t>
+  </si>
+  <si>
+    <t>RL9</t>
+  </si>
+  <si>
+    <t>RM1</t>
+  </si>
+  <si>
+    <t>RM2</t>
+  </si>
+  <si>
+    <t>RM3</t>
+  </si>
+  <si>
+    <t>RM4</t>
+  </si>
+  <si>
+    <t>RM5</t>
+  </si>
+  <si>
+    <t>RM6</t>
+  </si>
+  <si>
+    <t>RM7</t>
+  </si>
+  <si>
+    <t>RN1</t>
+  </si>
+  <si>
+    <t>RN2</t>
+  </si>
+  <si>
+    <t>RN3</t>
+  </si>
+  <si>
+    <t>RN4</t>
+  </si>
+  <si>
+    <t>RN7</t>
+  </si>
+  <si>
+    <t>RP1</t>
+  </si>
+  <si>
+    <t>RP2</t>
+  </si>
+  <si>
+    <t>RP3</t>
+  </si>
+  <si>
+    <t>RR1</t>
+  </si>
+  <si>
+    <t>RR2</t>
+  </si>
+  <si>
+    <t>RR4</t>
+  </si>
+  <si>
+    <t>RR5</t>
+  </si>
+  <si>
+    <t>RR6</t>
+  </si>
+  <si>
+    <t>RR7</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>right mid cingulate</t>
+  </si>
+  <si>
+    <t>right superior frontal gyrus</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>right basal temporal</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>right orbitofrontal/PET</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>right anterior temporal revision</t>
+  </si>
+  <si>
+    <t>right orbitofrontal revision</t>
+  </si>
+  <si>
+    <t>right mesial frontal revision</t>
+  </si>
+  <si>
+    <t>right frontal pole revision</t>
+  </si>
+  <si>
+    <t>right anterior insula revision</t>
+  </si>
+  <si>
+    <t>mesial temporal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1070,20 +1267,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,12 +1333,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>12946.5</v>
@@ -1166,7 +1366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1183,7 +1383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1194,7 +1394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1205,27 +1405,28 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,12 +1476,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>18893.11</v>
@@ -1308,12 +1509,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="1">
-        <v>659035.32</v>
+        <v>659035.31999999995</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>43</v>
@@ -1328,7 +1529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1342,7 +1543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1356,7 +1557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
@@ -1370,7 +1571,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>59</v>
       </c>
@@ -1384,7 +1585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1398,7 +1599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
@@ -1409,7 +1610,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>68</v>
       </c>
@@ -1420,7 +1621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>70</v>
       </c>
@@ -1431,217 +1632,218 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F38" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F39" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F41" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="6:6" ht="13" x14ac:dyDescent="0.15">
       <c r="F48" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="6:6" ht="13" x14ac:dyDescent="0.15">
       <c r="F49" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="6:6" ht="13" x14ac:dyDescent="0.15">
       <c r="F50" s="1" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1691,12 +1893,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>7086.47</v>
@@ -1724,7 +1926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F3" s="1" t="s">
         <v>79</v>
       </c>
@@ -1741,7 +1943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
@@ -1755,7 +1957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>113</v>
       </c>
@@ -1766,7 +1968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>110</v>
       </c>
@@ -1777,7 +1979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>76</v>
       </c>
@@ -1788,7 +1990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>98</v>
       </c>
@@ -1799,7 +2001,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
         <v>100</v>
       </c>
@@ -1810,7 +2012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>102</v>
       </c>
@@ -1821,7 +2023,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>104</v>
       </c>
@@ -1832,7 +2034,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>118</v>
       </c>
@@ -1843,7 +2045,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
         <v>121</v>
       </c>
@@ -1854,7 +2056,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1865,7 +2067,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1876,7 +2078,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
         <v>59</v>
       </c>
@@ -1887,7 +2089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
         <v>128</v>
       </c>
@@ -1898,7 +2100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
         <v>70</v>
       </c>
@@ -1909,7 +2111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
         <v>131</v>
       </c>
@@ -1920,122 +2122,123 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F38" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F39" s="1" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,12 +2288,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>13215.01</v>
@@ -2127,7 +2330,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -2156,7 +2359,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
         <v>74</v>
       </c>
@@ -2176,7 +2379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>75</v>
       </c>
@@ -2193,7 +2396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>156</v>
       </c>
@@ -2210,7 +2413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>157</v>
       </c>
@@ -2227,7 +2430,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>159</v>
       </c>
@@ -2241,7 +2444,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
         <v>161</v>
       </c>
@@ -2255,7 +2458,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>163</v>
       </c>
@@ -2269,7 +2472,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>55</v>
       </c>
@@ -2283,7 +2486,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>59</v>
       </c>
@@ -2297,7 +2500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
         <v>128</v>
       </c>
@@ -2311,7 +2514,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2325,7 +2528,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
@@ -2333,7 +2536,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
         <v>38</v>
       </c>
@@ -2341,7 +2544,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
         <v>173</v>
       </c>
@@ -2349,7 +2552,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
         <v>175</v>
       </c>
@@ -2357,7 +2560,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
         <v>177</v>
       </c>
@@ -2365,7 +2568,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="1" t="s">
         <v>62</v>
       </c>
@@ -2373,7 +2576,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="1" t="s">
         <v>155</v>
       </c>
@@ -2381,7 +2584,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="1" t="s">
         <v>41</v>
       </c>
@@ -2389,7 +2592,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
         <v>136</v>
       </c>
@@ -2397,7 +2600,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="1" t="s">
         <v>111</v>
       </c>
@@ -2405,7 +2608,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="1" t="s">
         <v>180</v>
       </c>
@@ -2413,7 +2616,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="1" t="s">
         <v>107</v>
       </c>
@@ -2421,7 +2624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="1" t="s">
         <v>106</v>
       </c>
@@ -2429,7 +2632,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="1" t="s">
         <v>94</v>
       </c>
@@ -2437,7 +2640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="1" t="s">
         <v>93</v>
       </c>
@@ -2445,7 +2648,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="1" t="s">
         <v>105</v>
       </c>
@@ -2453,7 +2656,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="1" t="s">
         <v>92</v>
       </c>
@@ -2461,7 +2664,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="1" t="s">
         <v>91</v>
       </c>
@@ -2469,7 +2672,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="1" t="s">
         <v>90</v>
       </c>
@@ -2477,207 +2680,208 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P34" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P35" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P36" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P37" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P38" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P39" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P40" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P41" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P42" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P43" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P44" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P45" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P46" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P47" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P48" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P49" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P50" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P51" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P52" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P53" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P54" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P55" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P56" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P57" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P58" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P59" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P60" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P62" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P63" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P64" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P65" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P66" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P67" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P68" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P69" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="16:16" ht="13" x14ac:dyDescent="0.15">
       <c r="P70" s="2" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2727,7 +2931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>195</v>
       </c>
@@ -2744,72 +2948,75 @@
         <v>170.95</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E3" s="1">
-        <v>1051.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E4" s="1">
-        <v>2168.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E5" s="1">
-        <v>3099.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E6" s="1">
-        <v>4031.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E7" s="1">
-        <v>4978.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E8" s="1">
-        <v>6110.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E9" s="1">
-        <v>7027.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E10" s="1">
-        <v>8031.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>8031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11" s="1">
-        <v>8806.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>8806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="1">
-        <v>9347.8</v>
+        <v>9347.7999999999993</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2859,12 +3066,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>25875.11</v>
@@ -2894,7 +3101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>204</v>
       </c>
@@ -2914,7 +3121,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
         <v>206</v>
       </c>
@@ -2928,7 +3135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>207</v>
       </c>
@@ -2942,7 +3149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2956,7 +3163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>209</v>
       </c>
@@ -2970,7 +3177,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>210</v>
       </c>
@@ -2984,7 +3191,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
         <v>211</v>
       </c>
@@ -2998,7 +3205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>141</v>
       </c>
@@ -3012,7 +3219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>213</v>
       </c>
@@ -3026,7 +3233,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>215</v>
       </c>
@@ -3040,7 +3247,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
         <v>137</v>
       </c>
@@ -3054,7 +3261,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
         <v>138</v>
       </c>
@@ -3068,7 +3275,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
         <v>139</v>
       </c>
@@ -3082,7 +3289,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
         <v>220</v>
       </c>
@@ -3096,7 +3303,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
         <v>222</v>
       </c>
@@ -3110,7 +3317,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
         <v>224</v>
       </c>
@@ -3124,7 +3331,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
         <v>226</v>
       </c>
@@ -3132,7 +3339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="1" t="s">
         <v>227</v>
       </c>
@@ -3140,7 +3347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="1" t="s">
         <v>228</v>
       </c>
@@ -3148,7 +3355,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="1" t="s">
         <v>229</v>
       </c>
@@ -3156,7 +3363,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
         <v>230</v>
       </c>
@@ -3164,7 +3371,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="1" t="s">
         <v>231</v>
       </c>
@@ -3172,7 +3379,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="1" t="s">
         <v>232</v>
       </c>
@@ -3180,7 +3387,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="1" t="s">
         <v>233</v>
       </c>
@@ -3188,7 +3395,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="1" t="s">
         <v>234</v>
       </c>
@@ -3196,7 +3403,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="1" t="s">
         <v>73</v>
       </c>
@@ -3204,7 +3411,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="1" t="s">
         <v>75</v>
       </c>
@@ -3212,7 +3419,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="1" t="s">
         <v>77</v>
       </c>
@@ -3220,7 +3427,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="1" t="s">
         <v>186</v>
       </c>
@@ -3228,7 +3435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="1" t="s">
         <v>78</v>
       </c>
@@ -3236,7 +3443,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="1" t="s">
         <v>80</v>
       </c>
@@ -3244,7 +3451,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="1" t="s">
         <v>82</v>
       </c>
@@ -3252,7 +3459,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="1" t="s">
         <v>189</v>
       </c>
@@ -3260,7 +3467,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="1" t="s">
         <v>28</v>
       </c>
@@ -3268,7 +3475,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="1" t="s">
         <v>85</v>
       </c>
@@ -3276,7 +3483,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F38" s="1" t="s">
         <v>86</v>
       </c>
@@ -3284,7 +3491,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F39" s="1" t="s">
         <v>236</v>
       </c>
@@ -3292,7 +3499,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="1" t="s">
         <v>237</v>
       </c>
@@ -3300,7 +3507,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F41" s="1" t="s">
         <v>17</v>
       </c>
@@ -3308,7 +3515,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="1" t="s">
         <v>87</v>
       </c>
@@ -3316,7 +3523,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="1" t="s">
         <v>89</v>
       </c>
@@ -3324,7 +3531,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="1" t="s">
         <v>241</v>
       </c>
@@ -3332,7 +3539,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="1" t="s">
         <v>90</v>
       </c>
@@ -3340,7 +3547,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="1" t="s">
         <v>92</v>
       </c>
@@ -3348,7 +3555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="1" t="s">
         <v>94</v>
       </c>
@@ -3356,7 +3563,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F48" s="1" t="s">
         <v>96</v>
       </c>
@@ -3364,7 +3571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F49" s="1" t="s">
         <v>98</v>
       </c>
@@ -3372,7 +3579,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F50" s="1" t="s">
         <v>99</v>
       </c>
@@ -3380,7 +3587,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F51" s="1" t="s">
         <v>100</v>
       </c>
@@ -3388,7 +3595,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F52" s="1" t="s">
         <v>101</v>
       </c>
@@ -3396,7 +3603,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F53" s="1" t="s">
         <v>105</v>
       </c>
@@ -3404,7 +3611,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F54" s="1" t="s">
         <v>107</v>
       </c>
@@ -3412,7 +3619,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F55" s="1" t="s">
         <v>247</v>
       </c>
@@ -3420,7 +3627,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F56" s="1" t="s">
         <v>248</v>
       </c>
@@ -3428,7 +3635,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F57" s="1" t="s">
         <v>249</v>
       </c>
@@ -3436,7 +3643,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F58" s="1" t="s">
         <v>250</v>
       </c>
@@ -3444,7 +3651,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F59" s="1" t="s">
         <v>251</v>
       </c>
@@ -3452,7 +3659,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F60" s="1" t="s">
         <v>159</v>
       </c>
@@ -3460,7 +3667,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F61" s="1" t="s">
         <v>163</v>
       </c>
@@ -3468,7 +3675,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F62" s="1" t="s">
         <v>255</v>
       </c>
@@ -3476,7 +3683,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F63" s="1" t="s">
         <v>62</v>
       </c>
@@ -3484,7 +3691,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F64" s="1" t="s">
         <v>155</v>
       </c>
@@ -3492,7 +3699,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F65" s="1" t="s">
         <v>41</v>
       </c>
@@ -3500,7 +3707,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F66" s="1" t="s">
         <v>46</v>
       </c>
@@ -3508,7 +3715,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F67" s="1" t="s">
         <v>65</v>
       </c>
@@ -3516,7 +3723,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F68" s="1" t="s">
         <v>68</v>
       </c>
@@ -3524,7 +3731,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F69" s="1" t="s">
         <v>135</v>
       </c>
@@ -3532,7 +3739,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F70" s="1" t="s">
         <v>136</v>
       </c>
@@ -3540,7 +3747,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F71" s="1" t="s">
         <v>70</v>
       </c>
@@ -3548,7 +3755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F72" s="1" t="s">
         <v>38</v>
       </c>
@@ -3556,7 +3763,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F73" s="1" t="s">
         <v>173</v>
       </c>
@@ -3564,7 +3771,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F74" s="1" t="s">
         <v>174</v>
       </c>
@@ -3572,37 +3779,546 @@
         <v>262</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F75" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F76" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F77" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F78" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F79" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="6:16" ht="13" x14ac:dyDescent="0.15">
       <c r="F80" s="1" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1371A68E-4402-9949-A7EB-39EF0B9EBBFF}">
+  <dimension ref="A1:P64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>267</v>
+      </c>
+      <c r="M10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>209</v>
+      </c>
+      <c r="M11" t="s">
+        <v>313</v>
+      </c>
+      <c r="N11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" t="s">
+        <v>314</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>268</v>
+      </c>
+      <c r="M13" t="s">
+        <v>315</v>
+      </c>
+      <c r="N13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>269</v>
+      </c>
+      <c r="M14" t="s">
+        <v>317</v>
+      </c>
+      <c r="N14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>211</v>
+      </c>
+      <c r="M15" t="s">
+        <v>318</v>
+      </c>
+      <c r="N15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>270</v>
+      </c>
+      <c r="M16" t="s">
+        <v>322</v>
+      </c>
+      <c r="N16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="s">
+        <v>319</v>
+      </c>
+      <c r="N17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" t="s">
+        <v>320</v>
+      </c>
+      <c r="N18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F57" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F59" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F61" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/clinical_info/Stim info.xlsx
+++ b/clinical_info/Stim info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinconrad/Desktop/research/cceps/CCEPS/clinical_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE2C8B4-B823-614A-B9DD-347EC2919917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640E22B0-DD5C-8D41-8434-994904D29B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,6 +820,12 @@
     <t>HUP218_CCEP</t>
   </si>
   <si>
+    <t>mesial temporal</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>RA2</t>
   </si>
   <si>
@@ -829,18 +835,69 @@
     <t>RA8</t>
   </si>
   <si>
+    <t>right mid cingulate</t>
+  </si>
+  <si>
+    <t>right orbitofrontal/PET</t>
+  </si>
+  <si>
     <t>RB2</t>
   </si>
   <si>
+    <t>right superior frontal gyrus</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
+  <si>
     <t>RC2</t>
   </si>
   <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>right basal temporal</t>
+  </si>
+  <si>
     <t>RC8</t>
   </si>
   <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>right anterior insula revision</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>right anterior temporal revision</t>
+  </si>
+  <si>
     <t>RD2</t>
   </si>
   <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>right orbitofrontal revision</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>right mesial frontal revision</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>right frontal pole revision</t>
+  </si>
+  <si>
     <t>RD6</t>
   </si>
   <si>
@@ -956,70 +1013,13 @@
   </si>
   <si>
     <t>RR7</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>right mid cingulate</t>
-  </si>
-  <si>
-    <t>right superior frontal gyrus</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>RK</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>right basal temporal</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>right orbitofrontal/PET</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>right anterior temporal revision</t>
-  </si>
-  <si>
-    <t>right orbitofrontal revision</t>
-  </si>
-  <si>
-    <t>right mesial frontal revision</t>
-  </si>
-  <si>
-    <t>right frontal pole revision</t>
-  </si>
-  <si>
-    <t>right anterior insula revision</t>
-  </si>
-  <si>
-    <t>mesial temporal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1028,6 +1028,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1055,10 +1060,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1277,13 +1289,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,8 +1346,11 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +1383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1383,7 +1400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1394,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1405,7 +1422,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1420,13 +1437,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,8 +1492,11 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1509,7 +1529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1529,7 +1549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1543,7 +1563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1557,7 +1577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
@@ -1571,7 +1591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>59</v>
       </c>
@@ -1585,7 +1605,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1599,7 +1619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
@@ -1610,7 +1630,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>68</v>
       </c>
@@ -1621,7 +1641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>70</v>
       </c>
@@ -1632,27 +1652,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
         <v>76</v>
       </c>
@@ -1837,13 +1857,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1892,8 +1912,11 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -1926,7 +1949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F3" s="1" t="s">
         <v>79</v>
       </c>
@@ -1943,7 +1966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
@@ -1957,7 +1980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>113</v>
       </c>
@@ -1968,7 +1991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>110</v>
       </c>
@@ -1979,7 +2002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>76</v>
       </c>
@@ -1990,7 +2013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>98</v>
       </c>
@@ -2001,7 +2024,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
         <v>100</v>
       </c>
@@ -2012,7 +2035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>102</v>
       </c>
@@ -2023,7 +2046,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>104</v>
       </c>
@@ -2034,7 +2057,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>118</v>
       </c>
@@ -2045,7 +2068,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
         <v>121</v>
       </c>
@@ -2056,7 +2079,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2067,7 +2090,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
         <v>43</v>
       </c>
@@ -2078,7 +2101,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
         <v>59</v>
       </c>
@@ -2232,13 +2255,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2287,8 +2310,11 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>150</v>
       </c>
@@ -2330,7 +2356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -2355,11 +2381,11 @@
       <c r="N3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
         <v>74</v>
       </c>
@@ -2379,7 +2405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>75</v>
       </c>
@@ -2396,7 +2422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>156</v>
       </c>
@@ -2413,7 +2439,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>157</v>
       </c>
@@ -2430,7 +2456,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>159</v>
       </c>
@@ -2444,7 +2470,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
         <v>161</v>
       </c>
@@ -2458,7 +2484,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>163</v>
       </c>
@@ -2472,7 +2498,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>55</v>
       </c>
@@ -2486,7 +2512,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>59</v>
       </c>
@@ -2500,7 +2526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
         <v>128</v>
       </c>
@@ -2514,7 +2540,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2528,7 +2554,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
@@ -2536,7 +2562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
         <v>38</v>
       </c>
@@ -2861,7 +2887,7 @@
       </c>
     </row>
     <row r="70" spans="16:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="P70" s="2" t="s">
+      <c r="P70" s="3" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2875,13 +2901,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2930,8 +2956,11 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>195</v>
       </c>
@@ -2941,59 +2970,65 @@
       <c r="C2" s="1">
         <v>170.95</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>197</v>
       </c>
       <c r="E2" s="1">
         <v>170.95</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="1">
+        <v>9346.09</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9348.09</v>
+      </c>
       <c r="E3" s="1">
         <v>1051</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E4" s="1">
         <v>2168</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E5" s="1">
         <v>3099</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E6" s="1">
         <v>4031</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E7" s="1">
         <v>4978</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E8" s="1">
         <v>6110</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E9" s="1">
         <v>7027</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E10" s="1">
         <v>8031</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11" s="1">
         <v>8806</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="1">
         <v>9347.7999999999993</v>
       </c>
@@ -3008,15 +3043,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3065,8 +3098,11 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>198</v>
       </c>
@@ -3101,7 +3137,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>204</v>
       </c>
@@ -3121,7 +3157,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
         <v>206</v>
       </c>
@@ -3135,7 +3171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>207</v>
       </c>
@@ -3149,7 +3185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
@@ -3163,7 +3199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>209</v>
       </c>
@@ -3177,7 +3213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>210</v>
       </c>
@@ -3191,7 +3227,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
         <v>211</v>
       </c>
@@ -3205,7 +3241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>141</v>
       </c>
@@ -3219,7 +3255,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>213</v>
       </c>
@@ -3233,7 +3269,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>215</v>
       </c>
@@ -3247,7 +3283,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
         <v>137</v>
       </c>
@@ -3261,7 +3297,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
         <v>138</v>
       </c>
@@ -3275,7 +3311,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
         <v>139</v>
       </c>
@@ -3289,7 +3325,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
         <v>220</v>
       </c>
@@ -3815,510 +3851,1563 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1371A68E-4402-9949-A7EB-39EF0B9EBBFF}">
-  <dimension ref="A1:P64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="4">
+        <v>29781.9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <v>29003.57</v>
+      </c>
+      <c r="D3" s="5">
+        <v>29604</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+    </row>
+    <row r="53" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+    </row>
+    <row r="55" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+    </row>
+    <row r="56" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+    </row>
+    <row r="57" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+    </row>
+    <row r="58" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+    </row>
+    <row r="59" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+    </row>
+    <row r="60" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+    </row>
+    <row r="64" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K2" t="s">
-        <v>310</v>
-      </c>
-      <c r="M2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>119</v>
-      </c>
-      <c r="N3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F4" t="s">
-        <v>205</v>
-      </c>
-      <c r="M4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F5" t="s">
-        <v>265</v>
-      </c>
-      <c r="M5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F6" t="s">
-        <v>207</v>
-      </c>
-      <c r="M6" t="s">
-        <v>126</v>
-      </c>
-      <c r="N6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F8" t="s">
-        <v>112</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" t="s">
-        <v>130</v>
-      </c>
-      <c r="N9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F10" t="s">
-        <v>267</v>
-      </c>
-      <c r="M10" t="s">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F11" t="s">
-        <v>209</v>
-      </c>
-      <c r="M11" t="s">
-        <v>313</v>
-      </c>
-      <c r="N11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F12" t="s">
-        <v>145</v>
-      </c>
-      <c r="M12" t="s">
-        <v>314</v>
-      </c>
-      <c r="N12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F13" t="s">
-        <v>268</v>
-      </c>
-      <c r="M13" t="s">
-        <v>315</v>
-      </c>
-      <c r="N13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F14" t="s">
-        <v>269</v>
-      </c>
-      <c r="M14" t="s">
-        <v>317</v>
-      </c>
-      <c r="N14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F15" t="s">
-        <v>211</v>
-      </c>
-      <c r="M15" t="s">
-        <v>318</v>
-      </c>
-      <c r="N15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F16" t="s">
-        <v>270</v>
-      </c>
-      <c r="M16" t="s">
-        <v>322</v>
-      </c>
-      <c r="N16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F17" t="s">
-        <v>141</v>
-      </c>
-      <c r="M17" t="s">
-        <v>319</v>
-      </c>
-      <c r="N17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F18" t="s">
-        <v>142</v>
-      </c>
-      <c r="M18" t="s">
-        <v>320</v>
-      </c>
-      <c r="N18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F31" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F33" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F35" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F37" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F38" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F39" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F40" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F42" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F43" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F44" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F45" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F48" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F49" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F51" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F52" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F53" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F54" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F55" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F56" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F57" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F58" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F59" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F60" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F61" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F62" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F63" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F64" t="s">
-        <v>309</v>
-      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+    </row>
+    <row r="65" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+    </row>
+    <row r="66" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+    </row>
+    <row r="67" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/clinical_info/Stim info.xlsx
+++ b/clinical_info/Stim info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinconrad/Desktop/research/cceps/CCEPS/clinical_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640E22B0-DD5C-8D41-8434-994904D29B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE376A46-E20E-1F4F-9006-DE70BAA7967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3858,7 +3858,7 @@
   <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3968,7 +3968,7 @@
         <v>29003.57</v>
       </c>
       <c r="D3" s="5">
-        <v>29604</v>
+        <v>29304</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="2" t="s">
@@ -5392,6 +5392,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
@@ -5402,11 +5407,6 @@
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clinical_info/Stim info.xlsx
+++ b/clinical_info/Stim info.xlsx
@@ -1,32 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinconrad/Desktop/research/cceps/CCEPS/clinical_info/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE376A46-E20E-1F4F-9006-DE70BAA7967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Pt1" sheetId="1" r:id="rId1"/>
-    <sheet name="Pt2" sheetId="2" r:id="rId2"/>
-    <sheet name="Pt3" sheetId="3" r:id="rId3"/>
-    <sheet name="Pt4" sheetId="4" r:id="rId4"/>
-    <sheet name="Pt5" sheetId="5" r:id="rId5"/>
-    <sheet name="Pt6" sheetId="6" r:id="rId6"/>
-    <sheet name="Pt7" sheetId="7" r:id="rId7"/>
+    <sheet state="visible" name="HUP211" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="HUP212" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="HUP214" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="HUP213" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="CHOP" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="HUP216" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="HUP218" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="332">
   <si>
     <t>Ieeg name</t>
   </si>
@@ -490,12 +481,15 @@
     <t>Looks like nice cceps LC6-&gt;LB9; LA1-&gt;LC1;LA2-&gt;LL1;LJ3-&gt;LH5</t>
   </si>
   <si>
+    <t>HUP213_phaseII_D01</t>
+  </si>
+  <si>
+    <t>LA2</t>
+  </si>
+  <si>
     <t>HUP213_phaseII_D02</t>
   </si>
   <si>
-    <t>LA2</t>
-  </si>
-  <si>
     <t>LD8</t>
   </si>
   <si>
@@ -640,10 +634,16 @@
     <t>right hippocampus</t>
   </si>
   <si>
+    <t>HUP216_phaseII_D01</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>RA3</t>
+  </si>
+  <si>
     <t>HUP216_phaseII_D02</t>
-  </si>
-  <si>
-    <t>RA3</t>
   </si>
   <si>
     <t>RA5</t>
@@ -1018,78 +1018,94 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1279,25 +1295,20 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,12 +1361,12 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C2" s="1">
         <v>12946.5</v>
@@ -1383,7 +1394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1400,7 +1411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1422,28 +1433,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,12 +1506,12 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C2" s="1">
         <v>18893.11</v>
@@ -1529,12 +1539,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="1">
-        <v>659035.31999999995</v>
+        <v>659035.32</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>43</v>
@@ -1549,7 +1559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="F4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1563,7 +1573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1577,7 +1587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="F7" s="1" t="s">
         <v>59</v>
       </c>
@@ -1605,7 +1615,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
@@ -1630,7 +1640,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="F10" s="1" t="s">
         <v>68</v>
       </c>
@@ -1641,7 +1651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="F11" s="1" t="s">
         <v>70</v>
       </c>
@@ -1652,218 +1662,217 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="F13" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="F14" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="F15" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="F16" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="F17" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="F18" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="F19" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="F20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="F21" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="F22" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="F24" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="F25" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="F26" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="F27" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="F28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="F29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="F30" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="F31" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="F32" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="F33" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="F34" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="F35" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="F36" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="F37" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="F38" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="F39" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="F40" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="F41" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="F42" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="F43" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44">
       <c r="F44" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45">
       <c r="F45" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46">
       <c r="F46" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47">
       <c r="F47" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="48">
       <c r="F48" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="49">
       <c r="F49" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="F50" s="1" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1916,12 +1925,12 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="1">
         <v>7086.47</v>
@@ -1949,7 +1958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="F3" s="1" t="s">
         <v>79</v>
       </c>
@@ -1966,7 +1975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
@@ -1980,7 +1989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="F5" s="1" t="s">
         <v>113</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="F6" s="1" t="s">
         <v>110</v>
       </c>
@@ -2002,7 +2011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="F7" s="1" t="s">
         <v>76</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="F8" s="1" t="s">
         <v>98</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="F9" s="1" t="s">
         <v>100</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="F10" s="1" t="s">
         <v>102</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="F11" s="1" t="s">
         <v>104</v>
       </c>
@@ -2057,7 +2066,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="F12" s="1" t="s">
         <v>118</v>
       </c>
@@ -2068,7 +2077,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="F13" s="1" t="s">
         <v>121</v>
       </c>
@@ -2079,7 +2088,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2090,7 +2099,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="F15" s="1" t="s">
         <v>43</v>
       </c>
@@ -2101,7 +2110,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="F16" s="1" t="s">
         <v>59</v>
       </c>
@@ -2112,7 +2121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="F17" s="1" t="s">
         <v>128</v>
       </c>
@@ -2123,7 +2132,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="F18" s="1" t="s">
         <v>70</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="F19" s="1" t="s">
         <v>131</v>
       </c>
@@ -2145,123 +2154,122 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="F20" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="F21" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="F22" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="F23" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="F24" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="F25" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="F26" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="F27" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="F28" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="F29" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="F30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="F31" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="6:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="F32" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="F33" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="F34" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="F35" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="F36" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="F37" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="F38" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="F39" s="1" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2314,12 +2322,12 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C2" s="1">
         <v>13215.01</v>
@@ -2356,12 +2364,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1390301.32</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>73</v>
@@ -2381,11 +2386,17 @@
       <c r="N3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1390301.32</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>74</v>
       </c>
@@ -2405,7 +2416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="F5" s="1" t="s">
         <v>75</v>
       </c>
@@ -2422,9 +2433,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="F6" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>41</v>
@@ -2439,9 +2450,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="F7" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>94</v>
@@ -2450,55 +2461,55 @@
         <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="F8" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="F9" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="F10" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="F11" s="1" t="s">
         <v>55</v>
       </c>
@@ -2506,46 +2517,46 @@
         <v>71</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="F12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="F13" s="1" t="s">
         <v>128</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="F14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>21</v>
@@ -2554,7 +2565,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
@@ -2562,39 +2573,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="F16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="F17" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="F18" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="F19" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="F20" s="1" t="s">
         <v>62</v>
       </c>
@@ -2602,7 +2613,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="F21" s="1" t="s">
         <v>155</v>
       </c>
@@ -2610,39 +2621,39 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="F22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="F23" s="1" t="s">
         <v>136</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="F24" s="1" t="s">
         <v>111</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="F25" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="F26" s="1" t="s">
         <v>107</v>
       </c>
@@ -2650,7 +2661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="F27" s="1" t="s">
         <v>106</v>
       </c>
@@ -2658,7 +2669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="F28" s="1" t="s">
         <v>94</v>
       </c>
@@ -2666,7 +2677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="F29" s="1" t="s">
         <v>93</v>
       </c>
@@ -2674,7 +2685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="F30" s="1" t="s">
         <v>105</v>
       </c>
@@ -2682,7 +2693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="F31" s="1" t="s">
         <v>92</v>
       </c>
@@ -2690,7 +2701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="F32" s="1" t="s">
         <v>91</v>
       </c>
@@ -2698,7 +2709,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="F33" s="1" t="s">
         <v>90</v>
       </c>
@@ -2706,208 +2717,207 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="P34" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="P35" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="P36" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="P37" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="P38" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="P39" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="P40" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="P41" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="P42" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="P43" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="P44" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="P45" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="P46" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="P47" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="P48" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="P49" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="P50" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="51">
       <c r="P51" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="52">
       <c r="P52" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="53">
       <c r="P53" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="54">
       <c r="P54" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="55">
       <c r="P55" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="56">
       <c r="P56" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="P57" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="58">
       <c r="P58" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="P59" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="P60" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="P61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="62">
       <c r="P62" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="63">
       <c r="P63" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="64">
       <c r="P64" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="65">
       <c r="P65" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="66">
       <c r="P66" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="67">
       <c r="P67" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="68">
       <c r="P68" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="16:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="69">
       <c r="P69" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="16:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="P70" s="3" t="s">
         <v>194</v>
       </c>
     </row>
+    <row r="70">
+      <c r="P70" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2960,24 +2970,24 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1">
         <v>170.95</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>197</v>
+      <c r="D2" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="E2" s="1">
         <v>170.95</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="C3" s="1">
         <v>9346.09</v>
       </c>
@@ -2985,71 +2995,70 @@
         <v>9348.09</v>
       </c>
       <c r="E3" s="1">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1051.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="E4" s="1">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2168.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="E5" s="1">
-        <v>3099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3099.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="E6" s="1">
-        <v>4031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4031.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="E7" s="1">
-        <v>4978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4978.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" s="1">
-        <v>6110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6110.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" s="1">
-        <v>7027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7027.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="E10" s="1">
-        <v>8031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8031.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="E11" s="1">
-        <v>8806</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8806.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="E12" s="1">
-        <v>9347.7999999999993</v>
+        <v>9347.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3102,12 +3111,12 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C2" s="1">
         <v>25875.11</v>
@@ -3116,36 +3125,36 @@
         <v>30135.61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>116</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="1">
-        <v>285058.36</v>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>119</v>
@@ -3157,9 +3166,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="1">
+        <v>285058.36</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>124</v>
@@ -3171,9 +3186,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="F5" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>126</v>
@@ -3185,7 +3200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
@@ -3193,15 +3208,15 @@
         <v>130</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="F7" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>52</v>
@@ -3213,9 +3228,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="F8" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>56</v>
@@ -3224,24 +3239,24 @@
         <v>27</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="F9" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="F10" s="1" t="s">
         <v>141</v>
       </c>
@@ -3249,41 +3264,41 @@
         <v>20</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="F11" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="F12" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="F13" s="1" t="s">
         <v>137</v>
       </c>
@@ -3291,155 +3306,155 @@
         <v>71</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="F14" s="1" t="s">
         <v>138</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="F15" s="1" t="s">
         <v>139</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="F16" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="F17" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="F18" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="F19" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="F20" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="F21" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="F22" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="F23" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="F24" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="F25" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="F26" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="F27" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="F28" s="1" t="s">
         <v>73</v>
       </c>
@@ -3447,31 +3462,31 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="F29" s="1" t="s">
         <v>75</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="F30" s="1" t="s">
         <v>77</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="F31" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="F32" s="1" t="s">
         <v>78</v>
       </c>
@@ -3479,7 +3494,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="F33" s="1" t="s">
         <v>80</v>
       </c>
@@ -3487,7 +3502,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="F34" s="1" t="s">
         <v>82</v>
       </c>
@@ -3495,95 +3510,95 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="F35" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="F36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="F37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="F38" s="1" t="s">
         <v>86</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="F39" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="F40" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="F41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="F42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="43" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="F43" s="1" t="s">
         <v>89</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="F44" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="45" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="F45" s="1" t="s">
         <v>90</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="F46" s="1" t="s">
         <v>92</v>
       </c>
@@ -3591,7 +3606,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47">
       <c r="F47" s="1" t="s">
         <v>94</v>
       </c>
@@ -3599,7 +3614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="48">
       <c r="F48" s="1" t="s">
         <v>96</v>
       </c>
@@ -3607,7 +3622,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="49">
       <c r="F49" s="1" t="s">
         <v>98</v>
       </c>
@@ -3615,15 +3630,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="F50" s="1" t="s">
         <v>99</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="F51" s="1" t="s">
         <v>100</v>
       </c>
@@ -3631,7 +3646,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="52">
       <c r="F52" s="1" t="s">
         <v>101</v>
       </c>
@@ -3639,7 +3654,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="53">
       <c r="F53" s="1" t="s">
         <v>105</v>
       </c>
@@ -3647,143 +3662,143 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="54">
       <c r="F54" s="1" t="s">
         <v>107</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="F55" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="56">
       <c r="F56" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="57">
       <c r="F57" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="58">
       <c r="F58" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="F59" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="F60" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="F61" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="F62" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="63" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="F63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="F64" s="1" t="s">
         <v>155</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="F65" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="F66" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="F67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="F68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="69" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="F69" s="1" t="s">
         <v>135</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="F70" s="1" t="s">
         <v>136</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="F71" s="1" t="s">
         <v>70</v>
       </c>
@@ -3791,79 +3806,76 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="72">
       <c r="F72" s="1" t="s">
         <v>38</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="F73" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="74" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="F74" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="75" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="F75" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="F76" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="77">
       <c r="F77" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="78">
       <c r="F78" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="79">
       <c r="F79" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="6:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="80">
       <c r="F80" s="1" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3916,63 +3928,61 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" s="4">
         <v>29781.9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="7"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <v>29003.57</v>
       </c>
-      <c r="D3" s="5">
-        <v>29304</v>
+      <c r="D3" s="2">
+        <v>29304.0</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>18</v>
@@ -3985,21 +3995,20 @@
       <c r="M3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="7"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -4010,21 +4019,19 @@
       <c r="M4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -4035,21 +4042,20 @@
       <c r="M5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="O5" s="7"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -4060,21 +4066,20 @@
       <c r="M6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="O6" s="7"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -4085,14 +4090,13 @@
       <c r="M7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="7"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4110,14 +4114,13 @@
       <c r="M8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="O8" s="7"/>
+      <c r="N8" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4135,21 +4138,20 @@
       <c r="M9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="O9" s="7"/>
+      <c r="N9" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -4160,21 +4162,20 @@
       <c r="M10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="O10" s="7"/>
+      <c r="N10" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -4183,16 +4184,16 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4208,7 +4209,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>129</v>
@@ -4217,14 +4218,14 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -4233,23 +4234,22 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="O13" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -4258,23 +4258,21 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -4283,23 +4281,21 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -4308,16 +4304,15 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="O16" s="7"/>
+        <v>287</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4333,16 +4328,15 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="O17" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4358,23 +4352,22 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="O18" s="7"/>
+        <v>291</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -4388,14 +4381,14 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -4409,7 +4402,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4430,14 +4423,14 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -4451,7 +4444,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -4472,14 +4465,14 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -4493,7 +4486,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -4514,7 +4507,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4535,14 +4528,14 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -4556,14 +4549,14 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -4577,14 +4570,14 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -4598,14 +4591,14 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -4619,14 +4612,14 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -4640,7 +4633,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4661,14 +4654,14 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -4682,14 +4675,14 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -4703,14 +4696,14 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -4724,7 +4717,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4745,14 +4738,14 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -4766,14 +4759,14 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -4787,14 +4780,14 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -4808,14 +4801,14 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -4829,14 +4822,14 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -4850,14 +4843,14 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -4871,14 +4864,14 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -4892,14 +4885,14 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -4913,14 +4906,14 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -4934,14 +4927,14 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -4955,14 +4948,14 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -4976,14 +4969,14 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="48">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -4997,14 +4990,14 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="49">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -5018,14 +5011,14 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -5039,14 +5032,14 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="51">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -5060,14 +5053,14 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="52">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -5081,14 +5074,14 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="53">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -5102,14 +5095,14 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="54">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -5123,14 +5116,14 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
     </row>
-    <row r="55" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="55">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -5144,14 +5137,14 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="56">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -5165,14 +5158,14 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="57">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -5186,14 +5179,14 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
     </row>
-    <row r="58" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="58">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -5207,14 +5200,14 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
     </row>
-    <row r="59" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="59">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -5228,14 +5221,14 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
     </row>
-    <row r="60" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="60">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -5249,14 +5242,14 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
     </row>
-    <row r="61" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="61">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -5270,14 +5263,14 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
     </row>
-    <row r="62" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="62">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -5291,14 +5284,14 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
     </row>
-    <row r="63" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="63">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -5312,14 +5305,14 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="64">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -5333,7 +5326,7 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
     </row>
-    <row r="65" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="65">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -5352,7 +5345,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
     </row>
-    <row r="66" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="66">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -5371,7 +5364,7 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
     </row>
-    <row r="67" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="67">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -5408,6 +5401,6 @@
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="N16:O16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/clinical_info/Stim info.xlsx
+++ b/clinical_info/Stim info.xlsx
@@ -10,6 +10,7 @@
     <sheet state="visible" name="CHOP" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="HUP216" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="HUP218" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="HUP219" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="364">
   <si>
     <t>Ieeg name</t>
   </si>
@@ -124,6 +125,18 @@
     <t>RF1</t>
   </si>
   <si>
+    <t>SzFile</t>
+  </si>
+  <si>
+    <t>SzStart</t>
+  </si>
+  <si>
+    <t>SzEnd</t>
+  </si>
+  <si>
+    <t>SzCh</t>
+  </si>
+  <si>
     <t>HUP212_CCEP</t>
   </si>
   <si>
@@ -601,6 +614,9 @@
     <t>LE11</t>
   </si>
   <si>
+    <t>MORE to do</t>
+  </si>
+  <si>
     <t>LL12</t>
   </si>
   <si>
@@ -1013,6 +1029,87 @@
   </si>
   <si>
     <t>RR7</t>
+  </si>
+  <si>
+    <t>HUP219_CCEP</t>
+  </si>
+  <si>
+    <t>ipsilateral facial twitching RD1</t>
+  </si>
+  <si>
+    <t>RA4</t>
+  </si>
+  <si>
+    <t>right inferior temporal gyrus</t>
+  </si>
+  <si>
+    <t>right posterior cingulate gyrus</t>
+  </si>
+  <si>
+    <t>right insula</t>
+  </si>
+  <si>
+    <t>right precentral gyrus</t>
+  </si>
+  <si>
+    <t>right frontal operculum</t>
+  </si>
+  <si>
+    <t>RB4</t>
+  </si>
+  <si>
+    <t>RB6</t>
+  </si>
+  <si>
+    <t>RB8</t>
+  </si>
+  <si>
+    <t>RC3</t>
+  </si>
+  <si>
+    <t>RC4</t>
+  </si>
+  <si>
+    <t>RC5</t>
+  </si>
+  <si>
+    <t>RC6</t>
+  </si>
+  <si>
+    <t>RD8</t>
+  </si>
+  <si>
+    <t>RD9</t>
+  </si>
+  <si>
+    <t>RF2</t>
+  </si>
+  <si>
+    <t>RF3</t>
+  </si>
+  <si>
+    <t>RF4</t>
+  </si>
+  <si>
+    <t>RJ1</t>
+  </si>
+  <si>
+    <t>RJ2</t>
+  </si>
+  <si>
+    <t>RJ3</t>
+  </si>
+  <si>
+    <t>RJ4</t>
+  </si>
+  <si>
+    <t>RJ5</t>
+  </si>
+  <si>
+    <t>RJ6</t>
+  </si>
+  <si>
+    <t>RJ7</t>
   </si>
 </sst>
 </file>
@@ -1059,14 +1156,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,6 +1198,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1502,13 +1603,22 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
@@ -1521,131 +1631,143 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="1">
+        <v>245545.0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>245725.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>659035.32</v>
       </c>
+      <c r="D3" s="1">
+        <v>666139.59</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>27</v>
@@ -1653,68 +1775,68 @@
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -1724,22 +1846,22 @@
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -1754,107 +1876,107 @@
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
       <c r="F48" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
       <c r="F49" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
       <c r="F50" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1927,7 +2049,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -1940,80 +2062,80 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>26</v>
@@ -2024,21 +2146,21 @@
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>21</v>
@@ -2046,73 +2168,73 @@
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>32</v>
@@ -2123,21 +2245,21 @@
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>30</v>
@@ -2145,63 +2267,63 @@
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30">
@@ -2211,27 +2333,27 @@
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
@@ -2241,17 +2363,17 @@
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2318,13 +2440,22 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
@@ -2337,569 +2468,1136 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" s="1">
+        <v>14987.0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>15034.11</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>154</v>
+      <c r="A3" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R3" s="1">
+        <v>15878.0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>15894.58</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>156</v>
+      <c r="A4" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C4" s="1">
         <v>1390301.32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4" s="1">
+        <v>16545.0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>16591.16</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R5" s="1">
+        <v>23913.0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>23966.03</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R6" s="1">
+        <v>32872.0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>32887.25</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R7" s="1">
+        <v>33357.0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>33384.65</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R8" s="1">
+        <v>40304.0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>40320.86</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R9" s="1">
+        <v>40438.0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>40455.12</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R10" s="1">
+        <v>40621.0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>40649.14</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R11" s="1">
+        <v>42587.0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>42604.03</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R12" s="1">
+        <v>43684.0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>43699.94</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13" s="1">
+        <v>44410.44</v>
+      </c>
+      <c r="S13" s="1">
+        <v>44423.55</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R14" s="1">
+        <v>46052.78</v>
+      </c>
+      <c r="S14" s="1">
+        <v>46065.25</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R15" s="1">
+        <v>46276.0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>46291.23</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R16" s="1">
+        <v>46618.22</v>
+      </c>
+      <c r="S16" s="1">
+        <v>46632.58</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R17" s="1">
+        <v>46747.0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>46760.39</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R18" s="1">
+        <v>48843.0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>48858.39</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R19" s="1">
+        <v>49336.0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>49349.17</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R20" s="1">
+        <v>49588.0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>49604.06</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R21" s="1">
+        <v>49793.0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>49820.53</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R22" s="1">
+        <v>50042.0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>50086.7</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R23" s="1">
+        <v>50195.0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>50207.52</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R24" s="1">
+        <v>50400.0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>50419.89</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R25" s="1">
+        <v>50529.0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>50541.91</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R26" s="1">
+        <v>50696.0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>50718.59</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R27" s="1">
+        <v>50846.0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>50872.52</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R28" s="1">
+        <v>50938.0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>50949.19</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R29" s="1">
+        <v>51443.0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>51466.03</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R30" s="1">
+        <v>52149.0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>52163.08</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R31" s="1">
+        <v>52671.0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>52687.91</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R32" s="1">
+        <v>52731.0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>52743.08</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R33" s="1">
+        <v>52831.0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>52852.78</v>
       </c>
     </row>
     <row r="34">
       <c r="P34" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R34" s="1">
+        <v>52939.0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>52957.67</v>
       </c>
     </row>
     <row r="35">
       <c r="P35" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Q35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R35" s="1">
+        <v>53115.0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>53132.64</v>
+      </c>
     </row>
     <row r="36">
       <c r="P36" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R36" s="1">
+        <v>53565.0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>53582.94</v>
       </c>
     </row>
     <row r="37">
       <c r="P37" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R37" s="1">
+        <v>56489.0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>56504.94</v>
       </c>
     </row>
     <row r="38">
       <c r="P38" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R38" s="1">
+        <v>56570.0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>56584.39</v>
       </c>
     </row>
     <row r="39">
       <c r="P39" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R39" s="1">
+        <v>56649.0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>56663.31</v>
       </c>
     </row>
     <row r="40">
       <c r="P40" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R40" s="1">
+        <v>56944.0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>56967.53</v>
       </c>
     </row>
     <row r="41">
       <c r="P41" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R41" s="1">
+        <v>57644.0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>57661.34</v>
       </c>
     </row>
     <row r="42">
       <c r="P42" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R42" s="1">
+        <v>57763.73</v>
+      </c>
+      <c r="S42" s="1">
+        <v>57780.06</v>
       </c>
     </row>
     <row r="43">
       <c r="P43" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R43" s="1">
+        <v>57962.0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>57981.11</v>
       </c>
     </row>
     <row r="44">
       <c r="P44" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R44" s="1">
+        <v>58081.0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>58102.5</v>
       </c>
     </row>
     <row r="45">
       <c r="P45" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R45" s="1">
+        <v>58177.0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>58193.87</v>
       </c>
     </row>
     <row r="46">
       <c r="P46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q46" s="1" t="s">
         <v>158</v>
+      </c>
+      <c r="R46" s="1">
+        <v>58455.0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>58470.06</v>
       </c>
     </row>
     <row r="47">
       <c r="P47" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R47" s="1">
+        <v>58641.0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>58659.52</v>
       </c>
     </row>
     <row r="48">
       <c r="P48" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R48" s="1">
+        <v>59275.0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>59290.31</v>
       </c>
     </row>
     <row r="49">
       <c r="P49" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R49" s="1">
+        <v>59348.0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>59360.14</v>
       </c>
     </row>
     <row r="50">
       <c r="P50" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R50" s="1">
+        <v>59440.0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>59460.7</v>
       </c>
     </row>
     <row r="51">
       <c r="P51" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R51" s="1">
+        <v>59515.0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>59529.77</v>
       </c>
     </row>
     <row r="52">
       <c r="P52" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R52" s="1">
+        <v>59594.0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>59616.91</v>
       </c>
     </row>
     <row r="53">
       <c r="P53" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R53" s="1">
+        <v>59686.0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>59710.14</v>
       </c>
     </row>
     <row r="54">
       <c r="P54" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R54" s="1">
+        <v>59879.0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>59909.44</v>
       </c>
     </row>
     <row r="55">
       <c r="P55" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R55" s="1">
+        <v>61653.0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>61668.98</v>
       </c>
     </row>
     <row r="56">
       <c r="P56" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R56" s="1">
+        <v>61814.0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>61824.62</v>
       </c>
     </row>
     <row r="57">
       <c r="P57" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R57" s="1">
+        <v>61893.0</v>
+      </c>
+      <c r="S57" s="1">
+        <v>61915.59</v>
       </c>
     </row>
     <row r="58">
       <c r="P58" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R58" s="1">
+        <v>62338.0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>62361.86</v>
       </c>
     </row>
     <row r="59">
       <c r="P59" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R59" s="1">
+        <v>62582.0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>62600.66</v>
       </c>
     </row>
     <row r="60">
       <c r="P60" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R60" s="1">
+        <v>62626.0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>62639.77</v>
       </c>
     </row>
     <row r="61">
       <c r="P61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R61" s="1">
+        <v>62672.0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>62691.17</v>
       </c>
     </row>
     <row r="62">
       <c r="P62" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Q62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R62" s="1">
+        <v>62726.0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>62745.81</v>
+      </c>
     </row>
     <row r="63">
       <c r="P63" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R63" s="1">
+        <v>62919.0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>62948.61</v>
       </c>
     </row>
     <row r="64">
       <c r="P64" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="65">
       <c r="P65" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66">
       <c r="P66" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67">
       <c r="P67" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68">
       <c r="P68" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69">
       <c r="P69" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
       <c r="P70" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2972,16 +3670,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1">
         <v>170.95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E2" s="1">
         <v>170.95</v>
@@ -2991,7 +3689,7 @@
       <c r="C3" s="1">
         <v>9346.09</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>9348.09</v>
       </c>
       <c r="E3" s="1">
@@ -3113,7 +3811,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
@@ -3125,79 +3823,79 @@
         <v>30135.61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>205</v>
+      <c r="A3" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>208</v>
+      <c r="A4" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="C4" s="1">
         <v>285058.36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -3205,282 +3903,282 @@
         <v>18</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>28</v>
@@ -3488,34 +4186,34 @@
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36">
@@ -3523,39 +4221,39 @@
         <v>28</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41">
@@ -3563,244 +4261,244 @@
         <v>17</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="F48" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49">
       <c r="F49" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="F50" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51">
       <c r="F51" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>18</v>
@@ -3808,56 +4506,56 @@
     </row>
     <row r="72">
       <c r="F72" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3930,1477 +4628,1933 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="4">
+        <v>202</v>
+      </c>
+      <c r="C2" s="3">
         <v>29781.9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>203</v>
+      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="L2" s="5"/>
+        <v>273</v>
+      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="P2" s="4"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
         <v>29003.57</v>
       </c>
       <c r="D3" s="2">
         <v>29304.0</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+        <v>212</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q4" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+        <v>275</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+        <v>276</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+        <v>277</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+        <v>216</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="2" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+        <v>300</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+        <v>301</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+        <v>302</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+        <v>303</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+        <v>304</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+        <v>305</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+        <v>307</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+        <v>308</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
+        <v>147</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
+        <v>309</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
+        <v>310</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
+        <v>311</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
+        <v>312</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
+        <v>313</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
+        <v>314</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
+        <v>315</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
+        <v>316</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
+        <v>317</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
+        <v>318</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
+        <v>319</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
+        <v>320</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
+        <v>321</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
+        <v>322</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
+        <v>323</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
+        <v>324</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
+        <v>325</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
+        <v>326</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
+        <v>327</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
+        <v>328</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
+        <v>330</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
+        <v>331</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
+        <v>332</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
+        <v>333</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
+        <v>334</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
+        <v>335</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
+        <v>336</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:O16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23226.45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="F3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="F4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="F57" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/clinical_info/Stim info.xlsx
+++ b/clinical_info/Stim info.xlsx
@@ -11,6 +11,7 @@
     <sheet state="visible" name="HUP216" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="HUP218" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="HUP219" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="HUP220" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="371">
   <si>
     <t>Ieeg name</t>
   </si>
@@ -1110,6 +1111,27 @@
   </si>
   <si>
     <t>RJ7</t>
+  </si>
+  <si>
+    <t>HUP220_CCEP</t>
+  </si>
+  <si>
+    <t>left basal temporal</t>
+  </si>
+  <si>
+    <t>left orbitofrontal cortex</t>
+  </si>
+  <si>
+    <t>LG8</t>
+  </si>
+  <si>
+    <t>LI8</t>
+  </si>
+  <si>
+    <t>LJ9</t>
+  </si>
+  <si>
+    <t>LJ10</t>
   </si>
 </sst>
 </file>
@@ -1202,6 +1224,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6239,7 +6265,7 @@
       <c r="M5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="1" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6261,7 +6287,7 @@
       <c r="M7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6272,7 +6298,7 @@
       <c r="M8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="1" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6552,6 +6578,488 @@
     <row r="60">
       <c r="F60" s="1" t="s">
         <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8363.73</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="F3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="F4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="F57" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="F62" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="F63" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="F64" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/clinical_info/Stim info.xlsx
+++ b/clinical_info/Stim info.xlsx
@@ -12,6 +12,7 @@
     <sheet state="visible" name="HUP218" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="HUP219" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="HUP220" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="CHOPCCEP_018" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="371">
   <si>
     <t>Ieeg name</t>
   </si>
@@ -504,6 +505,9 @@
     <t>HUP213_phaseII_D02</t>
   </si>
   <si>
+    <t>LJ4</t>
+  </si>
+  <si>
     <t>LD8</t>
   </si>
   <si>
@@ -576,9 +580,6 @@
     <t>LB11</t>
   </si>
   <si>
-    <t>LJ4</t>
-  </si>
-  <si>
     <t>LB12</t>
   </si>
   <si>
@@ -837,9 +838,6 @@
     <t>HUP218_CCEP</t>
   </si>
   <si>
-    <t>mesial temporal</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -849,6 +847,9 @@
     <t>RA6</t>
   </si>
   <si>
+    <t>RB2</t>
+  </si>
+  <si>
     <t>RA8</t>
   </si>
   <si>
@@ -858,9 +859,6 @@
     <t>right orbitofrontal/PET</t>
   </si>
   <si>
-    <t>RB2</t>
-  </si>
-  <si>
     <t>right superior frontal gyrus</t>
   </si>
   <si>
@@ -1041,6 +1039,9 @@
     <t>RA4</t>
   </si>
   <si>
+    <t>RC3</t>
+  </si>
+  <si>
     <t>right inferior temporal gyrus</t>
   </si>
   <si>
@@ -1065,9 +1066,6 @@
     <t>RB8</t>
   </si>
   <si>
-    <t>RC3</t>
-  </si>
-  <si>
     <t>RC4</t>
   </si>
   <si>
@@ -1132,6 +1130,9 @@
   </si>
   <si>
     <t>LJ10</t>
+  </si>
+  <si>
+    <t>CHOPCCEP_018</t>
   </si>
 </sst>
 </file>
@@ -1178,14 +1179,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,6 +1197,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1570,6 +1575,85 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2503.24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -2499,6 +2583,9 @@
       <c r="G2" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>74</v>
       </c>
@@ -2540,8 +2627,11 @@
       <c r="F3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>96</v>
+      <c r="G3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>42</v>
@@ -2578,8 +2668,11 @@
       <c r="F4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>98</v>
+      <c r="G4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>66</v>
@@ -2607,6 +2700,12 @@
       <c r="F5" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>159</v>
       </c>
@@ -2631,7 +2730,13 @@
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>45</v>
@@ -2657,7 +2762,13 @@
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>98</v>
@@ -2666,7 +2777,7 @@
         <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>72</v>
@@ -2683,13 +2794,19 @@
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>139</v>
@@ -2706,13 +2823,13 @@
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>140</v>
@@ -2729,13 +2846,13 @@
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>115</v>
@@ -2758,10 +2875,10 @@
         <v>75</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>158</v>
@@ -2778,10 +2895,10 @@
         <v>63</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>54</v>
@@ -2801,13 +2918,13 @@
         <v>132</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>158</v>
@@ -2824,7 +2941,7 @@
         <v>58</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>21</v>
@@ -2864,7 +2981,7 @@
         <v>42</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>158</v>
@@ -2878,10 +2995,10 @@
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>158</v>
@@ -2895,10 +3012,10 @@
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>158</v>
@@ -2912,10 +3029,10 @@
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>158</v>
@@ -2966,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>158</v>
@@ -2983,7 +3100,7 @@
         <v>140</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>158</v>
@@ -3000,7 +3117,7 @@
         <v>115</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>158</v>
@@ -3014,7 +3131,7 @@
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>186</v>
@@ -3321,7 +3438,7 @@
     </row>
     <row r="45">
       <c r="P45" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>158</v>
@@ -3335,7 +3452,7 @@
     </row>
     <row r="46">
       <c r="P46" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>158</v>
@@ -3963,7 +4080,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -3974,7 +4091,7 @@
         <v>26</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>54</v>
@@ -3991,7 +4108,7 @@
         <v>220</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
@@ -4005,7 +4122,7 @@
         <v>222</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
@@ -4019,7 +4136,7 @@
         <v>224</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13">
@@ -4041,7 +4158,7 @@
         <v>142</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>226</v>
@@ -4055,13 +4172,13 @@
         <v>143</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>227</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
@@ -4075,7 +4192,7 @@
         <v>229</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
@@ -4089,7 +4206,7 @@
         <v>231</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
@@ -4143,7 +4260,7 @@
         <v>238</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24">
@@ -4423,7 +4540,7 @@
         <v>258</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59">
@@ -4436,7 +4553,7 @@
     </row>
     <row r="60">
       <c r="F60" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>261</v>
@@ -4444,7 +4561,7 @@
     </row>
     <row r="61">
       <c r="F61" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>262</v>
@@ -4487,7 +4604,7 @@
         <v>50</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67">
@@ -4495,7 +4612,7 @@
         <v>69</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68">
@@ -4540,7 +4657,7 @@
     </row>
     <row r="73">
       <c r="F73" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>228</v>
@@ -4548,7 +4665,7 @@
     </row>
     <row r="74">
       <c r="F74" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>270</v>
@@ -4556,7 +4673,7 @@
     </row>
     <row r="75">
       <c r="F75" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76">
@@ -4659,13 +4776,13 @@
       <c r="B2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>29781.9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="2" t="s">
         <v>205</v>
       </c>
@@ -4673,1439 +4790,1449 @@
         <v>205</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L2" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="L2" s="5"/>
       <c r="M2" s="2" t="s">
         <v>120</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="P2" s="5"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
         <v>29003.57</v>
       </c>
       <c r="D3" s="2">
         <v>29304.0</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+        <v>273</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="2" t="s">
         <v>123</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="2" t="s">
         <v>126</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="H5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="2" t="s">
         <v>128</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="2" t="s">
         <v>130</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="2" t="s">
         <v>134</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+        <v>275</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="2" t="s">
         <v>136</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+        <v>297</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+        <v>298</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+        <v>299</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6194,7 +6321,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>202</v>
@@ -6208,11 +6335,11 @@
       <c r="F2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
+      <c r="H2" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>120</v>
@@ -6226,10 +6353,10 @@
     </row>
     <row r="3">
       <c r="F3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>123</v>
@@ -6245,8 +6372,8 @@
       <c r="F4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>149</v>
+      <c r="H4" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>126</v>
@@ -6257,10 +6384,10 @@
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>128</v>
@@ -6282,7 +6409,7 @@
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>32</v>
@@ -6329,7 +6456,7 @@
         <v>18</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>344</v>
@@ -6337,7 +6464,7 @@
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13">
@@ -6382,27 +6509,27 @@
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26">
@@ -6412,7 +6539,7 @@
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28">
@@ -6422,7 +6549,7 @@
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30">
@@ -6442,7 +6569,7 @@
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34">
@@ -6452,12 +6579,12 @@
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37">
@@ -6467,7 +6594,7 @@
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39">
@@ -6477,7 +6604,7 @@
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41">
@@ -6487,17 +6614,17 @@
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45">
@@ -6507,7 +6634,7 @@
     </row>
     <row r="46">
       <c r="F46" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47">
@@ -6537,47 +6664,47 @@
     </row>
     <row r="52">
       <c r="F52" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6650,7 +6777,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>202</v>
@@ -6665,7 +6792,7 @@
         <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>43</v>
@@ -6682,7 +6809,7 @@
         <v>86</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>48</v>
@@ -6695,9 +6822,6 @@
       <c r="F4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="M4" s="1" t="s">
         <v>52</v>
       </c>
@@ -6709,23 +6833,17 @@
       <c r="F5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="M5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="M6" s="1" t="s">
         <v>26</v>
       </c>
@@ -6737,9 +6855,6 @@
       <c r="F7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M7" s="1" t="s">
         <v>20</v>
       </c>
@@ -6777,7 +6892,7 @@
         <v>75</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11">
@@ -6787,7 +6902,7 @@
       <c r="M11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6819,7 +6934,7 @@
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17">
@@ -6859,7 +6974,7 @@
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25">
@@ -6889,12 +7004,12 @@
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32">
@@ -6904,7 +7019,7 @@
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34">
@@ -6924,22 +7039,22 @@
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41">
@@ -6949,7 +7064,7 @@
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
@@ -6994,22 +7109,22 @@
     </row>
     <row r="51">
       <c r="F51" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55">

--- a/clinical_info/Stim info.xlsx
+++ b/clinical_info/Stim info.xlsx
@@ -1642,7 +1642,7 @@
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>2503.24</v>
       </c>
       <c r="D2" s="1" t="s">
